--- a/data/expansion_status.xlsx
+++ b/data/expansion_status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowanaahmed/Documents/Fall_2020/BST210/bst210_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowanaahmed/Documents/Fall_2020/BST210/bst210_final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10C3E91-60AD-FB4A-B69F-40FC01E9C573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF079F-E255-0841-A3AC-2B0C2B9DB969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="460" windowWidth="25440" windowHeight="14460" activeTab="1" xr2:uid="{050A1103-563A-AF45-9573-05A6C5719448}"/>
+    <workbookView xWindow="25620" yWindow="460" windowWidth="25440" windowHeight="14460" xr2:uid="{050A1103-563A-AF45-9573-05A6C5719448}"/>
   </bookViews>
   <sheets>
     <sheet name="expansion_status" sheetId="1" r:id="rId1"/>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855C217F-D8D1-334B-9C9C-BB837908310E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,49 +929,49 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
+      <c r="A2" s="4">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -983,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C33AB38-C4A2-3C4D-BDE1-B7FD2E50FDBD}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
